--- a/templates/community/FAIRagro/Agronomy_-_Mulching/Agronomy_-_Mulching_v1.0.0.xlsx
+++ b/templates/community/FAIRagro/Agronomy_-_Mulching/Agronomy_-_Mulching_v1.0.0.xlsx
@@ -161,7 +161,7 @@
     <t>0000-0001-6007-7948</t>
   </si>
   <si>
-    <t>Input [Source Name]</t>
+    <t>Input [Sample Name]</t>
   </si>
   <si>
     <t>Characteristic [mulch]</t>
@@ -242,7 +242,7 @@
     <t>Term Accession Number (AGRO:00002015)</t>
   </si>
   <si>
-    <t>Output [Source Name]</t>
+    <t>Output [Sample Name]</t>
   </si>
   <si>
     <t/>
@@ -348,7 +348,7 @@
     <filterColumn colId="27" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="28">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Characteristic [mulch]" totalsRowFunction="none"/>
     <tableColumn id="3" name="Term Source REF (AGRO:00000092)" totalsRowFunction="none"/>
     <tableColumn id="4" name="Term Accession Number (AGRO:00000092)" totalsRowFunction="none"/>
@@ -375,7 +375,7 @@
     <tableColumn id="25" name="Characteristic [mulch removal process]" totalsRowFunction="none"/>
     <tableColumn id="26" name="Term Source REF (AGRO:00002015)" totalsRowFunction="none"/>
     <tableColumn id="27" name="Term Accession Number (AGRO:00002015)" totalsRowFunction="none"/>
-    <tableColumn id="28" name="Output [Source Name]" totalsRowFunction="none"/>
+    <tableColumn id="28" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
